--- a/Data/input.xlsx
+++ b/Data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjk\Documents\GitHub\fire_report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BCC99A-1CD9-493E-92B7-595CFA5AFDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED697EB-4F23-44DC-B251-D006C7D01893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="630" windowWidth="11430" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5685" yWindow="1335" windowWidth="11430" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Parameters" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="2">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>50000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>3600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
